--- a/results/I3_N5_M3_T45_C100_DepCentral_s4_P5_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s4_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>872.2574656581255</v>
+        <v>2086.098673017256</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.72746666901232</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>12.40185083848012</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>587.6599989891132</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>251.87</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>39.58582527041438</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.15868643584639</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35.50084538957422</v>
+        <v>31.61595173195241</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>37.11679712152664</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.85113273640547</v>
+        <v>42.40185083848012</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.81602556806575</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38.92351947766122</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,286 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>136.5050000000014</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>141.3700000000014</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>151.6400000000014</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>147.3350000000014</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000000073</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000000072</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000000073</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>104.4149999999998</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>113.1949999999998</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>104.0099999999998</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>117.3699999999998</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>114.0649999999998</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.93999999999971</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>42.8799999999997</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>41.35</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>44.15999999999971</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>104.4149999999998</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.1949999999998</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.0099999999998</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>117.3699999999998</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>114.0649999999998</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.5100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6650000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>136.5050000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>141.3700000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>151.6400000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>147.3350000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>141.25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.414999961853027</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.1949999332428</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.009999990463257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17.36999988555908</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.06499999999976</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.994999885559082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.509999990463257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.664999961853027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.505000000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1659,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>36.50500000000139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>41.36999988555908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>51.64000000000138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>47.33500000000137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>24.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.45</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,10 +2434,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2113,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2124,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2135,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2146,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2154,10 +2489,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2168,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2179,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2190,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2201,9 +2536,75 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
